--- a/doc/04_DB定義書_イフリート・B・ムラナカ.xlsx
+++ b/doc/04_DB定義書_イフリート・B・ムラナカ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72486ACC-26CB-4A62-B888-989114ECBAE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32773CB3-87D5-4A24-A578-6F3D1CBE4F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="ポイントテーブル" sheetId="13" r:id="rId8"/>
     <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId9"/>
     <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId10"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId11"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId12"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId11"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId12"/>
     <sheet name="投稿テーブル" sheetId="5" r:id="rId13"/>
     <sheet name="収支テーブル" sheetId="3" r:id="rId14"/>
     <sheet name="ユーザテーブル" sheetId="8" r:id="rId15"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="146">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -991,6 +991,17 @@
     <rPh sb="11" eb="13">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2502,6 +2513,579 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table goals (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>g_goal int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>g_limit date ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>g_want varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>g_wantpic varchar (140),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>c_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">g_available int </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3023,579 +3607,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table goals (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>g_goal int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>g_limit date ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>g_want varchar (140),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3">
-        <v>140</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>g_wantpic varchar (140),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>update_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>c_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">g_available int </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4150,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4421,25 +4432,33 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>user_id varchar (20)</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">pay_date date </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4683,6 +4702,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6827,7 +6847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE5C9E-19FB-4F93-90F1-43D1D56D6D32}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_イフリート・B・ムラナカ.xlsx
+++ b/doc/04_DB定義書_イフリート・B・ムラナカ.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32773CB3-87D5-4A24-A578-6F3D1CBE4F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B743B791-BE80-4349-8DFE-E76A9C1E10F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ER図もどき" sheetId="15" r:id="rId2"/>
     <sheet name="健康テーブル" sheetId="19" r:id="rId3"/>
-    <sheet name="貯金テーブル" sheetId="18" r:id="rId4"/>
-    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId5"/>
-    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId6"/>
-    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId7"/>
+    <sheet name="ログイン履歴" sheetId="20" r:id="rId4"/>
+    <sheet name="貯金テーブル" sheetId="18" r:id="rId5"/>
+    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId6"/>
+    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId7"/>
     <sheet name="ポイントテーブル" sheetId="13" r:id="rId8"/>
-    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId9"/>
-    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId10"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId11"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId12"/>
+    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId9"/>
+    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId10"/>
+    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId11"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId12"/>
     <sheet name="投稿テーブル" sheetId="5" r:id="rId13"/>
-    <sheet name="収支テーブル" sheetId="3" r:id="rId14"/>
-    <sheet name="ユーザテーブル" sheetId="8" r:id="rId15"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId14"/>
+    <sheet name="収支テーブル" sheetId="3" r:id="rId15"/>
+    <sheet name="ユーザテーブル" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="150">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1002,6 +1003,25 @@
   </si>
   <si>
     <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン履歴</t>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h_login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたら１</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1523,7 +1543,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1820,10 +1840,18 @@
       <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
@@ -1977,6 +2005,527 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table nicebuycounts (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>buyte_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>buyte_count int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2512,11 +3061,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3082,531 +3631,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="10" width="17.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table characters (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>char_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4158,10 +4182,535 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table characters (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>char_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -4706,7 +5255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3626F4E-A92C-4C12-92B0-1F20278ED3BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -5272,8 +5821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E5B6C2-E903-4BFE-BEA2-23123FC5A45D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5802,6 +6351,527 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD98A40-9126-4126-840B-2B34829C8369}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K21:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table healths (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>h_login int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6321,11 +7391,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79624A17-55DE-4E78-8F5B-7D6F199EA190}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6843,7 +7913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE5C9E-19FB-4F93-90F1-43D1D56D6D32}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7387,7 +8457,527 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table points (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>point_pm int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45687263-D77C-4890-ADCD-E330F078AF7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7907,1045 +9497,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table points (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>point_pm int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="10" width="15.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table nicebuycounts (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>buyte_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>buyte_count int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_イフリート・B・ムラナカ.xlsx
+++ b/doc/04_DB定義書_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B743B791-BE80-4349-8DFE-E76A9C1E10F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF6510-0A35-4B30-979E-82C739A63927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1022,6 +1022,30 @@
   </si>
   <si>
     <t>ログインしたら１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン履歴テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続ログイン日数</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続ログイン</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1850,7 +1874,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -5806,7 +5830,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AT32" sqref="AT32"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6354,15 +6378,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD98A40-9126-4126-840B-2B34829C8369}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K21:K22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6396,7 +6418,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6408,7 +6430,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6448,7 +6470,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table healths (</v>
+        <v>create table logins (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6514,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>148</v>
